--- a/Buyer hub/dashboard/Manual testcases/Final testcases.xlsx
+++ b/Buyer hub/dashboard/Manual testcases/Final testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testcases one group\Buyer hub\dashboard\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\dashboard\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BC0B55-EF32-4572-AC1C-478793209C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178D0653-54C1-49E1-A871-EF7485A3EA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>SL. No</t>
   </si>
@@ -560,12 +560,52 @@
 It will display PER SUPPLIER dropdown and details</t>
     </r>
   </si>
+  <si>
+    <t>Interactive dashboard(New)</t>
+  </si>
+  <si>
+    <t>It gets displayed the Motionboard page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Interactive dashboard'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> it goes to next page </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Motionboard'</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,6 +633,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -977,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,7 +1251,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1215,19 +1262,19 @@
         <v>22</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>23</v>
+        <v>75</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1238,13 +1285,13 @@
         <v>22</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>25</v>
+        <v>91</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>24</v>
@@ -1261,19 +1308,19 @@
         <v>22</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>27</v>
+        <v>70</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1284,19 +1331,19 @@
         <v>22</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1306,22 +1353,22 @@
       <c r="C14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>21</v>
@@ -1329,14 +1376,14 @@
       <c r="C15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>77</v>
+      <c r="D15" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>24</v>
@@ -1344,30 +1391,30 @@
     </row>
     <row r="16" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>41</v>
+      <c r="D16" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>8</v>
@@ -1376,13 +1423,13 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>81</v>
+        <v>42</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>24</v>
@@ -1390,7 +1437,7 @@
     </row>
     <row r="18" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>8</v>
@@ -1399,13 +1446,13 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>24</v>
@@ -1413,7 +1460,7 @@
     </row>
     <row r="19" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>8</v>
@@ -1422,13 +1469,13 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>24</v>
@@ -1436,30 +1483,30 @@
     </row>
     <row r="20" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="8" t="s">
+      <c r="D20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>21</v>
@@ -1468,13 +1515,13 @@
         <v>22</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>24</v>
@@ -1482,7 +1529,7 @@
     </row>
     <row r="22" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>21</v>
@@ -1491,21 +1538,21 @@
         <v>22</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>84</v>
+        <v>30</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>21</v>
@@ -1514,67 +1561,67 @@
         <v>22</v>
       </c>
       <c r="D23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>24</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="G24" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E25" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>24</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>50</v>
@@ -1586,23 +1633,37 @@
         <v>52</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>27</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="G27" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
@@ -1636,6 +1697,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
